--- a/Solmodel2.xlsx
+++ b/Solmodel2.xlsx
@@ -565,10 +565,10 @@
         <v>20</v>
       </c>
       <c r="O2">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P2">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -615,10 +615,10 @@
         <v>20</v>
       </c>
       <c r="O3">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P3">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -665,10 +665,10 @@
         <v>20</v>
       </c>
       <c r="O4">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P4">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -715,10 +715,10 @@
         <v>20</v>
       </c>
       <c r="O5">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P5">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -765,10 +765,10 @@
         <v>20</v>
       </c>
       <c r="O6">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P6">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -815,10 +815,10 @@
         <v>20</v>
       </c>
       <c r="O7">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P7">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -865,10 +865,10 @@
         <v>20</v>
       </c>
       <c r="O8">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P8">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -915,10 +915,10 @@
         <v>20</v>
       </c>
       <c r="O9">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P9">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -965,10 +965,10 @@
         <v>20</v>
       </c>
       <c r="O10">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P10">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1015,10 +1015,10 @@
         <v>20</v>
       </c>
       <c r="O11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P11">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1065,10 +1065,10 @@
         <v>20</v>
       </c>
       <c r="O12">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P12">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1115,10 +1115,10 @@
         <v>20</v>
       </c>
       <c r="O13">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P13">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1165,10 +1165,10 @@
         <v>20</v>
       </c>
       <c r="O14">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P14">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1215,10 +1215,10 @@
         <v>20</v>
       </c>
       <c r="O15">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P15">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1265,10 +1265,10 @@
         <v>20</v>
       </c>
       <c r="O16">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P16">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1315,10 +1315,10 @@
         <v>20</v>
       </c>
       <c r="O17">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P17">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1365,10 +1365,10 @@
         <v>20</v>
       </c>
       <c r="O18">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P18">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1415,10 +1415,10 @@
         <v>20</v>
       </c>
       <c r="O19">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P19">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1465,10 +1465,10 @@
         <v>20</v>
       </c>
       <c r="O20">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P20">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1515,10 +1515,10 @@
         <v>20</v>
       </c>
       <c r="O21">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P21">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1565,10 +1565,10 @@
         <v>20</v>
       </c>
       <c r="O22">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P22">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1615,10 +1615,10 @@
         <v>20</v>
       </c>
       <c r="O23">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P23">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1665,10 +1665,10 @@
         <v>20</v>
       </c>
       <c r="O24">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P24">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1715,10 +1715,10 @@
         <v>20</v>
       </c>
       <c r="O25">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P25">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1765,10 +1765,10 @@
         <v>20</v>
       </c>
       <c r="O26">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P26">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1815,10 +1815,10 @@
         <v>20</v>
       </c>
       <c r="O27">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P27">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1865,10 +1865,10 @@
         <v>20</v>
       </c>
       <c r="O28">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P28">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1915,10 +1915,10 @@
         <v>20</v>
       </c>
       <c r="O29">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P29">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1965,10 +1965,10 @@
         <v>20</v>
       </c>
       <c r="O30">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P30">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2015,10 +2015,10 @@
         <v>20</v>
       </c>
       <c r="O31">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P31">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2065,10 +2065,10 @@
         <v>20</v>
       </c>
       <c r="O32">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P32">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2165,10 +2165,10 @@
         <v>20</v>
       </c>
       <c r="O34">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P34">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2265,10 +2265,10 @@
         <v>20</v>
       </c>
       <c r="O36">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P36">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2315,10 +2315,10 @@
         <v>20</v>
       </c>
       <c r="O37">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P37">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2365,10 +2365,10 @@
         <v>20</v>
       </c>
       <c r="O38">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P38">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2415,10 +2415,10 @@
         <v>20</v>
       </c>
       <c r="O39">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P39">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2465,10 +2465,10 @@
         <v>20</v>
       </c>
       <c r="O40">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P40">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2515,10 +2515,10 @@
         <v>20</v>
       </c>
       <c r="O41">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P41">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2565,10 +2565,10 @@
         <v>20</v>
       </c>
       <c r="O42">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P42">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2615,10 +2615,10 @@
         <v>20</v>
       </c>
       <c r="O43">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P43">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2665,10 +2665,10 @@
         <v>20</v>
       </c>
       <c r="O44">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P44">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2715,10 +2715,10 @@
         <v>20</v>
       </c>
       <c r="O45">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P45">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2765,10 +2765,10 @@
         <v>20</v>
       </c>
       <c r="O46">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P46">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2815,10 +2815,10 @@
         <v>20</v>
       </c>
       <c r="O47">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P47">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2915,10 +2915,10 @@
         <v>20</v>
       </c>
       <c r="O49">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P49">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -2965,10 +2965,10 @@
         <v>20</v>
       </c>
       <c r="O50">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P50">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3015,10 +3015,10 @@
         <v>20</v>
       </c>
       <c r="O51">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P51">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3065,10 +3065,10 @@
         <v>20</v>
       </c>
       <c r="O52">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P52">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3115,10 +3115,10 @@
         <v>20</v>
       </c>
       <c r="O53">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P53">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3215,10 +3215,10 @@
         <v>20</v>
       </c>
       <c r="O55">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P55">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3265,10 +3265,10 @@
         <v>20</v>
       </c>
       <c r="O56">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P56">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3315,10 +3315,10 @@
         <v>20</v>
       </c>
       <c r="O57">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P57">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3365,10 +3365,10 @@
         <v>20</v>
       </c>
       <c r="O58">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P58">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3415,10 +3415,10 @@
         <v>20</v>
       </c>
       <c r="O59">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P59">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3465,10 +3465,10 @@
         <v>20</v>
       </c>
       <c r="O60">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P60">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3515,10 +3515,10 @@
         <v>20</v>
       </c>
       <c r="O61">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P61">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3565,10 +3565,10 @@
         <v>20</v>
       </c>
       <c r="O62">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P62">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3615,10 +3615,10 @@
         <v>20</v>
       </c>
       <c r="O63">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P63">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3665,10 +3665,10 @@
         <v>20</v>
       </c>
       <c r="O64">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P64">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3715,10 +3715,10 @@
         <v>20</v>
       </c>
       <c r="O65">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P65">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3765,10 +3765,10 @@
         <v>20</v>
       </c>
       <c r="O66">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P66">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3815,10 +3815,10 @@
         <v>20</v>
       </c>
       <c r="O67">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P67">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -3865,10 +3865,10 @@
         <v>20</v>
       </c>
       <c r="O68">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P68">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -3915,10 +3915,10 @@
         <v>20</v>
       </c>
       <c r="O69">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P69">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -3965,10 +3965,10 @@
         <v>20</v>
       </c>
       <c r="O70">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P70">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4015,10 +4015,10 @@
         <v>20</v>
       </c>
       <c r="O71">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P71">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4065,10 +4065,10 @@
         <v>20</v>
       </c>
       <c r="O72">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P72">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4168,7 +4168,7 @@
         <v>0.0</v>
       </c>
       <c r="P74">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4215,10 +4215,10 @@
         <v>20</v>
       </c>
       <c r="O75">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P75">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4265,10 +4265,10 @@
         <v>20</v>
       </c>
       <c r="O76">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P76">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4315,10 +4315,10 @@
         <v>20</v>
       </c>
       <c r="O77">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P77">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4365,10 +4365,10 @@
         <v>20</v>
       </c>
       <c r="O78">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P78">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4415,10 +4415,10 @@
         <v>20</v>
       </c>
       <c r="O79">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P79">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4465,10 +4465,10 @@
         <v>20</v>
       </c>
       <c r="O80">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P80">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4515,10 +4515,10 @@
         <v>20</v>
       </c>
       <c r="O81">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P81">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4565,10 +4565,10 @@
         <v>20</v>
       </c>
       <c r="O82">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P82">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -4615,10 +4615,10 @@
         <v>20</v>
       </c>
       <c r="O83">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P83">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4665,10 +4665,10 @@
         <v>20</v>
       </c>
       <c r="O84">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P84">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4715,10 +4715,10 @@
         <v>20</v>
       </c>
       <c r="O85">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P85">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -4765,10 +4765,10 @@
         <v>20</v>
       </c>
       <c r="O86">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P86">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -4815,10 +4815,10 @@
         <v>20</v>
       </c>
       <c r="O87">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P87">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -4865,10 +4865,10 @@
         <v>20</v>
       </c>
       <c r="O88">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P88">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -4915,10 +4915,10 @@
         <v>20</v>
       </c>
       <c r="O89">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P89">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -4965,10 +4965,10 @@
         <v>20</v>
       </c>
       <c r="O90">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P90">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5015,10 +5015,10 @@
         <v>20</v>
       </c>
       <c r="O91">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P91">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5065,10 +5065,10 @@
         <v>20</v>
       </c>
       <c r="O92">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P92">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5115,10 +5115,10 @@
         <v>20</v>
       </c>
       <c r="O93">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P93">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5165,10 +5165,10 @@
         <v>20</v>
       </c>
       <c r="O94">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P94">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5215,10 +5215,10 @@
         <v>20</v>
       </c>
       <c r="O95">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P95">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5265,10 +5265,10 @@
         <v>20</v>
       </c>
       <c r="O96">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P96">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5315,10 +5315,10 @@
         <v>20</v>
       </c>
       <c r="O97">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P97">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5365,10 +5365,10 @@
         <v>20</v>
       </c>
       <c r="O98">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P98">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5415,10 +5415,10 @@
         <v>20</v>
       </c>
       <c r="O99">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P99">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -5465,10 +5465,10 @@
         <v>20</v>
       </c>
       <c r="O100">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P100">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -5515,10 +5515,10 @@
         <v>20</v>
       </c>
       <c r="O101">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P101">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -5565,10 +5565,10 @@
         <v>20</v>
       </c>
       <c r="O102">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P102">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -5615,10 +5615,10 @@
         <v>20</v>
       </c>
       <c r="O103">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P103">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -5665,10 +5665,10 @@
         <v>20</v>
       </c>
       <c r="O104">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P104">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -5715,10 +5715,10 @@
         <v>20</v>
       </c>
       <c r="O105">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P105">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -5765,10 +5765,10 @@
         <v>20</v>
       </c>
       <c r="O106">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P106">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5815,10 +5815,10 @@
         <v>20</v>
       </c>
       <c r="O107">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P107">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -5865,10 +5865,10 @@
         <v>20</v>
       </c>
       <c r="O108">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P108">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -5915,10 +5915,10 @@
         <v>20</v>
       </c>
       <c r="O109">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P109">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -5965,10 +5965,10 @@
         <v>20</v>
       </c>
       <c r="O110">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P110">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6015,10 +6015,10 @@
         <v>20</v>
       </c>
       <c r="O111">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P111">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6065,10 +6065,10 @@
         <v>20</v>
       </c>
       <c r="O112">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P112">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6115,10 +6115,10 @@
         <v>20</v>
       </c>
       <c r="O113">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P113">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6165,10 +6165,10 @@
         <v>20</v>
       </c>
       <c r="O114">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P114">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -6215,10 +6215,10 @@
         <v>20</v>
       </c>
       <c r="O115">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P115">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -6265,10 +6265,10 @@
         <v>20</v>
       </c>
       <c r="O116">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P116">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -6315,10 +6315,10 @@
         <v>20</v>
       </c>
       <c r="O117">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P117">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -6365,10 +6365,10 @@
         <v>20</v>
       </c>
       <c r="O118">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P118">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -6415,10 +6415,10 @@
         <v>20</v>
       </c>
       <c r="O119">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P119">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -6465,10 +6465,10 @@
         <v>20</v>
       </c>
       <c r="O120">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P120">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -6515,10 +6515,10 @@
         <v>20</v>
       </c>
       <c r="O121">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P121">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -6565,10 +6565,10 @@
         <v>20</v>
       </c>
       <c r="O122">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P122">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -6615,10 +6615,10 @@
         <v>20</v>
       </c>
       <c r="O123">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P123">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -6665,10 +6665,10 @@
         <v>20</v>
       </c>
       <c r="O124">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P124">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -6715,10 +6715,10 @@
         <v>20</v>
       </c>
       <c r="O125">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P125">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -6765,10 +6765,10 @@
         <v>20</v>
       </c>
       <c r="O126">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P126">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -6815,10 +6815,10 @@
         <v>20</v>
       </c>
       <c r="O127">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P127">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -6868,7 +6868,7 @@
         <v>1.0</v>
       </c>
       <c r="P128">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -6915,10 +6915,10 @@
         <v>20</v>
       </c>
       <c r="O129">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P129">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -6965,10 +6965,10 @@
         <v>20</v>
       </c>
       <c r="O130">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P130">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7015,10 +7015,10 @@
         <v>20</v>
       </c>
       <c r="O131">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P131">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7065,10 +7065,10 @@
         <v>20</v>
       </c>
       <c r="O132">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P132">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7115,10 +7115,10 @@
         <v>20</v>
       </c>
       <c r="O133">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P133">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7165,10 +7165,10 @@
         <v>20</v>
       </c>
       <c r="O134">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P134">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -7215,10 +7215,10 @@
         <v>20</v>
       </c>
       <c r="O135">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P135">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -7265,10 +7265,10 @@
         <v>20</v>
       </c>
       <c r="O136">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P136">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -7315,10 +7315,10 @@
         <v>20</v>
       </c>
       <c r="O137">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P137">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -7365,10 +7365,10 @@
         <v>20</v>
       </c>
       <c r="O138">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P138">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -7415,10 +7415,10 @@
         <v>20</v>
       </c>
       <c r="O139">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P139">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -7465,10 +7465,10 @@
         <v>20</v>
       </c>
       <c r="O140">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P140">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -7515,10 +7515,10 @@
         <v>20</v>
       </c>
       <c r="O141">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P141">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -7565,10 +7565,10 @@
         <v>20</v>
       </c>
       <c r="O142">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P142">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -7615,10 +7615,10 @@
         <v>20</v>
       </c>
       <c r="O143">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P143">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -7665,10 +7665,10 @@
         <v>20</v>
       </c>
       <c r="O144">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P144">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -7715,10 +7715,10 @@
         <v>20</v>
       </c>
       <c r="O145">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P145">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -7765,10 +7765,10 @@
         <v>20</v>
       </c>
       <c r="O146">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P146">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -7815,10 +7815,10 @@
         <v>20</v>
       </c>
       <c r="O147">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P147">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -7865,10 +7865,10 @@
         <v>20</v>
       </c>
       <c r="O148">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P148">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -7915,10 +7915,10 @@
         <v>20</v>
       </c>
       <c r="O149">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P149">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -7965,10 +7965,10 @@
         <v>20</v>
       </c>
       <c r="O150">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P150">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8015,10 +8015,10 @@
         <v>20</v>
       </c>
       <c r="O151">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P151">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8065,10 +8065,10 @@
         <v>20</v>
       </c>
       <c r="O152">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P152">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8115,10 +8115,10 @@
         <v>20</v>
       </c>
       <c r="O153">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P153">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -8165,10 +8165,10 @@
         <v>20</v>
       </c>
       <c r="O154">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P154">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -8215,10 +8215,10 @@
         <v>20</v>
       </c>
       <c r="O155">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P155">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -8518,7 +8518,7 @@
         <v>0.0</v>
       </c>
       <c r="P161">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -8665,7 +8665,7 @@
         <v>20</v>
       </c>
       <c r="O164">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P164">
         <v>0.0</v>
@@ -8865,7 +8865,7 @@
         <v>20</v>
       </c>
       <c r="O168">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P168">
         <v>0.0</v>
@@ -8918,7 +8918,7 @@
         <v>0.0</v>
       </c>
       <c r="P169">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9165,7 +9165,7 @@
         <v>20</v>
       </c>
       <c r="O174">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P174">
         <v>0.0</v>
@@ -9468,7 +9468,7 @@
         <v>0.0</v>
       </c>
       <c r="P180">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -9568,7 +9568,7 @@
         <v>0.0</v>
       </c>
       <c r="P182">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -9615,7 +9615,7 @@
         <v>20</v>
       </c>
       <c r="O183">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P183">
         <v>0.0</v>
@@ -9668,7 +9668,7 @@
         <v>0.0</v>
       </c>
       <c r="P184">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -9768,7 +9768,7 @@
         <v>0.0</v>
       </c>
       <c r="P186">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -9818,7 +9818,7 @@
         <v>0.0</v>
       </c>
       <c r="P187">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -9965,10 +9965,10 @@
         <v>20</v>
       </c>
       <c r="O190">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P190">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10015,10 +10015,10 @@
         <v>20</v>
       </c>
       <c r="O191">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P191">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10065,10 +10065,10 @@
         <v>20</v>
       </c>
       <c r="O192">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P192">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10115,10 +10115,10 @@
         <v>20</v>
       </c>
       <c r="O193">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P193">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -10165,10 +10165,10 @@
         <v>20</v>
       </c>
       <c r="O194">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P194">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -10215,10 +10215,10 @@
         <v>20</v>
       </c>
       <c r="O195">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P195">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -10265,10 +10265,10 @@
         <v>20</v>
       </c>
       <c r="O196">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P196">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -10315,10 +10315,10 @@
         <v>20</v>
       </c>
       <c r="O197">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P197">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -10365,10 +10365,10 @@
         <v>20</v>
       </c>
       <c r="O198">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P198">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -10415,10 +10415,10 @@
         <v>20</v>
       </c>
       <c r="O199">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P199">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -10465,10 +10465,10 @@
         <v>20</v>
       </c>
       <c r="O200">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P200">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -10515,10 +10515,10 @@
         <v>20</v>
       </c>
       <c r="O201">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P201">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -10565,10 +10565,10 @@
         <v>20</v>
       </c>
       <c r="O202">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P202">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -10615,10 +10615,10 @@
         <v>20</v>
       </c>
       <c r="O203">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P203">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -10665,10 +10665,10 @@
         <v>20</v>
       </c>
       <c r="O204">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P204">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -10715,10 +10715,10 @@
         <v>20</v>
       </c>
       <c r="O205">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P205">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -10765,10 +10765,10 @@
         <v>20</v>
       </c>
       <c r="O206">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P206">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -10815,10 +10815,10 @@
         <v>20</v>
       </c>
       <c r="O207">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P207">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -10865,10 +10865,10 @@
         <v>20</v>
       </c>
       <c r="O208">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P208">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -10915,10 +10915,10 @@
         <v>20</v>
       </c>
       <c r="O209">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P209">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -10965,10 +10965,10 @@
         <v>20</v>
       </c>
       <c r="O210">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P210">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11015,10 +11015,10 @@
         <v>20</v>
       </c>
       <c r="O211">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P211">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11065,10 +11065,10 @@
         <v>20</v>
       </c>
       <c r="O212">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P212">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -11115,10 +11115,10 @@
         <v>20</v>
       </c>
       <c r="O213">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P213">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -11165,10 +11165,10 @@
         <v>20</v>
       </c>
       <c r="O214">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P214">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -11215,10 +11215,10 @@
         <v>20</v>
       </c>
       <c r="O215">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P215">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -11265,10 +11265,10 @@
         <v>20</v>
       </c>
       <c r="O216">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P216">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="217" spans="1:16">

--- a/Solmodel2.xlsx
+++ b/Solmodel2.xlsx
@@ -565,10 +565,10 @@
         <v>20</v>
       </c>
       <c r="O2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -615,10 +615,10 @@
         <v>20</v>
       </c>
       <c r="O3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -665,10 +665,10 @@
         <v>20</v>
       </c>
       <c r="O4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="O5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P5">
         <v>-0.0</v>
@@ -765,7 +765,7 @@
         <v>20</v>
       </c>
       <c r="O6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P6">
         <v>-0.0</v>
@@ -815,10 +815,10 @@
         <v>20</v>
       </c>
       <c r="O7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -965,10 +965,10 @@
         <v>20</v>
       </c>
       <c r="O10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1015,7 +1015,7 @@
         <v>20</v>
       </c>
       <c r="O11">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P11">
         <v>-0.0</v>
@@ -1068,7 +1068,7 @@
         <v>-0.0</v>
       </c>
       <c r="P12">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1115,7 +1115,7 @@
         <v>20</v>
       </c>
       <c r="O13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P13">
         <v>-0.0</v>
@@ -1165,10 +1165,10 @@
         <v>20</v>
       </c>
       <c r="O14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P14">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1215,7 +1215,7 @@
         <v>20</v>
       </c>
       <c r="O15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P15">
         <v>-0.0</v>
@@ -1265,10 +1265,10 @@
         <v>20</v>
       </c>
       <c r="O16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1315,7 +1315,7 @@
         <v>20</v>
       </c>
       <c r="O17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P17">
         <v>-0.0</v>
@@ -1365,10 +1365,10 @@
         <v>20</v>
       </c>
       <c r="O18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1415,7 +1415,7 @@
         <v>20</v>
       </c>
       <c r="O19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P19">
         <v>-0.0</v>
@@ -1465,10 +1465,10 @@
         <v>20</v>
       </c>
       <c r="O20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1565,10 +1565,10 @@
         <v>20</v>
       </c>
       <c r="O22">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1615,7 +1615,7 @@
         <v>20</v>
       </c>
       <c r="O23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P23">
         <v>-0.0</v>
@@ -1665,10 +1665,10 @@
         <v>20</v>
       </c>
       <c r="O24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1715,10 +1715,10 @@
         <v>20</v>
       </c>
       <c r="O25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1765,7 +1765,7 @@
         <v>20</v>
       </c>
       <c r="O26">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P26">
         <v>-0.0</v>
@@ -1815,10 +1815,10 @@
         <v>20</v>
       </c>
       <c r="O27">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P27">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1865,10 +1865,10 @@
         <v>20</v>
       </c>
       <c r="O28">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P28">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1915,10 +1915,10 @@
         <v>20</v>
       </c>
       <c r="O29">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P29">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1965,10 +1965,10 @@
         <v>20</v>
       </c>
       <c r="O30">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P30">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2015,10 +2015,10 @@
         <v>20</v>
       </c>
       <c r="O31">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P31">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2165,10 +2165,10 @@
         <v>20</v>
       </c>
       <c r="O34">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P34">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2265,7 +2265,7 @@
         <v>20</v>
       </c>
       <c r="O36">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P36">
         <v>-0.0</v>
@@ -2315,7 +2315,7 @@
         <v>20</v>
       </c>
       <c r="O37">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P37">
         <v>-0.0</v>
@@ -2365,7 +2365,7 @@
         <v>20</v>
       </c>
       <c r="O38">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P38">
         <v>-0.0</v>
@@ -2415,10 +2415,10 @@
         <v>20</v>
       </c>
       <c r="O39">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P39">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2465,7 +2465,7 @@
         <v>20</v>
       </c>
       <c r="O40">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P40">
         <v>-0.0</v>
@@ -2515,7 +2515,7 @@
         <v>20</v>
       </c>
       <c r="O41">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P41">
         <v>-0.0</v>
@@ -2565,10 +2565,10 @@
         <v>20</v>
       </c>
       <c r="O42">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P42">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2665,10 +2665,10 @@
         <v>20</v>
       </c>
       <c r="O44">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P44">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2715,10 +2715,10 @@
         <v>20</v>
       </c>
       <c r="O45">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P45">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2765,7 +2765,7 @@
         <v>20</v>
       </c>
       <c r="O46">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P46">
         <v>-0.0</v>
@@ -2965,7 +2965,7 @@
         <v>20</v>
       </c>
       <c r="O50">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P50">
         <v>-0.0</v>
@@ -3065,7 +3065,7 @@
         <v>20</v>
       </c>
       <c r="O52">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P52">
         <v>-0.0</v>
@@ -3115,10 +3115,10 @@
         <v>20</v>
       </c>
       <c r="O53">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P53">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3315,10 +3315,10 @@
         <v>20</v>
       </c>
       <c r="O57">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P57">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3365,7 +3365,7 @@
         <v>20</v>
       </c>
       <c r="O58">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P58">
         <v>-0.0</v>
@@ -3415,7 +3415,7 @@
         <v>20</v>
       </c>
       <c r="O59">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P59">
         <v>-0.0</v>
@@ -3465,7 +3465,7 @@
         <v>20</v>
       </c>
       <c r="O60">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P60">
         <v>-0.0</v>
@@ -3515,7 +3515,7 @@
         <v>20</v>
       </c>
       <c r="O61">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P61">
         <v>-0.0</v>
@@ -3565,7 +3565,7 @@
         <v>20</v>
       </c>
       <c r="O62">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P62">
         <v>-0.0</v>
@@ -3615,7 +3615,7 @@
         <v>20</v>
       </c>
       <c r="O63">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P63">
         <v>-0.0</v>
@@ -3665,7 +3665,7 @@
         <v>20</v>
       </c>
       <c r="O64">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P64">
         <v>-0.0</v>
@@ -3715,7 +3715,7 @@
         <v>20</v>
       </c>
       <c r="O65">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P65">
         <v>-0.0</v>
@@ -3815,10 +3815,10 @@
         <v>20</v>
       </c>
       <c r="O67">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P67">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -3865,10 +3865,10 @@
         <v>20</v>
       </c>
       <c r="O68">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P68">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -3965,10 +3965,10 @@
         <v>20</v>
       </c>
       <c r="O70">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P70">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4015,7 +4015,7 @@
         <v>20</v>
       </c>
       <c r="O71">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P71">
         <v>-0.0</v>
@@ -4065,10 +4065,10 @@
         <v>20</v>
       </c>
       <c r="O72">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P72">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4165,7 +4165,7 @@
         <v>20</v>
       </c>
       <c r="O74">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P74">
         <v>0.0</v>
@@ -4215,10 +4215,10 @@
         <v>20</v>
       </c>
       <c r="O75">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P75">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4265,7 +4265,7 @@
         <v>20</v>
       </c>
       <c r="O76">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P76">
         <v>-0.0</v>
@@ -4315,10 +4315,10 @@
         <v>20</v>
       </c>
       <c r="O77">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P77">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4365,10 +4365,10 @@
         <v>20</v>
       </c>
       <c r="O78">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P78">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4418,7 +4418,7 @@
         <v>-0.0</v>
       </c>
       <c r="P79">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4465,7 +4465,7 @@
         <v>20</v>
       </c>
       <c r="O80">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P80">
         <v>-0.0</v>
@@ -4515,7 +4515,7 @@
         <v>20</v>
       </c>
       <c r="O81">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P81">
         <v>-0.0</v>
@@ -4565,7 +4565,7 @@
         <v>20</v>
       </c>
       <c r="O82">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P82">
         <v>-0.0</v>
@@ -4615,7 +4615,7 @@
         <v>20</v>
       </c>
       <c r="O83">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P83">
         <v>-0.0</v>
@@ -4665,10 +4665,10 @@
         <v>20</v>
       </c>
       <c r="O84">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P84">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4768,7 +4768,7 @@
         <v>-0.0</v>
       </c>
       <c r="P86">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -4865,10 +4865,10 @@
         <v>20</v>
       </c>
       <c r="O88">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P88">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -4915,10 +4915,10 @@
         <v>20</v>
       </c>
       <c r="O89">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P89">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -4968,7 +4968,7 @@
         <v>-0.0</v>
       </c>
       <c r="P90">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5015,10 +5015,10 @@
         <v>20</v>
       </c>
       <c r="O91">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P91">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5065,7 +5065,7 @@
         <v>20</v>
       </c>
       <c r="O92">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P92">
         <v>-0.0</v>
@@ -5118,7 +5118,7 @@
         <v>-0.0</v>
       </c>
       <c r="P93">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5215,7 +5215,7 @@
         <v>20</v>
       </c>
       <c r="O95">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P95">
         <v>-0.0</v>
@@ -5268,7 +5268,7 @@
         <v>-0.0</v>
       </c>
       <c r="P96">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5368,7 +5368,7 @@
         <v>-0.0</v>
       </c>
       <c r="P98">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5415,7 +5415,7 @@
         <v>20</v>
       </c>
       <c r="O99">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P99">
         <v>-0.0</v>
@@ -5465,10 +5465,10 @@
         <v>20</v>
       </c>
       <c r="O100">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P100">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -5515,10 +5515,10 @@
         <v>20</v>
       </c>
       <c r="O101">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P101">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -5565,10 +5565,10 @@
         <v>20</v>
       </c>
       <c r="O102">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P102">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -5665,10 +5665,10 @@
         <v>20</v>
       </c>
       <c r="O104">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P104">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -5715,10 +5715,10 @@
         <v>20</v>
       </c>
       <c r="O105">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P105">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -5765,10 +5765,10 @@
         <v>20</v>
       </c>
       <c r="O106">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P106">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5815,10 +5815,10 @@
         <v>20</v>
       </c>
       <c r="O107">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P107">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -5865,10 +5865,10 @@
         <v>20</v>
       </c>
       <c r="O108">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P108">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -5965,10 +5965,10 @@
         <v>20</v>
       </c>
       <c r="O110">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P110">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6015,10 +6015,10 @@
         <v>20</v>
       </c>
       <c r="O111">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P111">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6065,10 +6065,10 @@
         <v>20</v>
       </c>
       <c r="O112">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P112">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6115,10 +6115,10 @@
         <v>20</v>
       </c>
       <c r="O113">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P113">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6215,7 +6215,7 @@
         <v>20</v>
       </c>
       <c r="O115">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P115">
         <v>-0.0</v>
@@ -6265,10 +6265,10 @@
         <v>20</v>
       </c>
       <c r="O116">
+        <v>0.0</v>
+      </c>
+      <c r="P116">
         <v>1.0</v>
-      </c>
-      <c r="P116">
-        <v>-0.0</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -6365,10 +6365,10 @@
         <v>20</v>
       </c>
       <c r="O118">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P118">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -6415,10 +6415,10 @@
         <v>20</v>
       </c>
       <c r="O119">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P119">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -6465,10 +6465,10 @@
         <v>20</v>
       </c>
       <c r="O120">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P120">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -6518,7 +6518,7 @@
         <v>-0.0</v>
       </c>
       <c r="P121">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -6565,10 +6565,10 @@
         <v>20</v>
       </c>
       <c r="O122">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P122">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -6615,10 +6615,10 @@
         <v>20</v>
       </c>
       <c r="O123">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P123">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -6665,10 +6665,10 @@
         <v>20</v>
       </c>
       <c r="O124">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P124">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -6715,7 +6715,7 @@
         <v>20</v>
       </c>
       <c r="O125">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P125">
         <v>-0.0</v>
@@ -6815,10 +6815,10 @@
         <v>20</v>
       </c>
       <c r="O127">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P127">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -6915,10 +6915,10 @@
         <v>20</v>
       </c>
       <c r="O129">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P129">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -6965,7 +6965,7 @@
         <v>20</v>
       </c>
       <c r="O130">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P130">
         <v>-0.0</v>
@@ -7065,7 +7065,7 @@
         <v>20</v>
       </c>
       <c r="O132">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P132">
         <v>-0.0</v>
@@ -7115,7 +7115,7 @@
         <v>20</v>
       </c>
       <c r="O133">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P133">
         <v>-0.0</v>
@@ -7165,7 +7165,7 @@
         <v>20</v>
       </c>
       <c r="O134">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P134">
         <v>-0.0</v>
@@ -7215,7 +7215,7 @@
         <v>20</v>
       </c>
       <c r="O135">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P135">
         <v>-0.0</v>
@@ -7265,7 +7265,7 @@
         <v>20</v>
       </c>
       <c r="O136">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P136">
         <v>-0.0</v>
@@ -7315,7 +7315,7 @@
         <v>20</v>
       </c>
       <c r="O137">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P137">
         <v>-0.0</v>
@@ -7368,7 +7368,7 @@
         <v>-0.0</v>
       </c>
       <c r="P138">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -7415,7 +7415,7 @@
         <v>20</v>
       </c>
       <c r="O139">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P139">
         <v>-0.0</v>
@@ -7465,10 +7465,10 @@
         <v>20</v>
       </c>
       <c r="O140">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P140">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -7518,7 +7518,7 @@
         <v>-0.0</v>
       </c>
       <c r="P141">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -7565,10 +7565,10 @@
         <v>20</v>
       </c>
       <c r="O142">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P142">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -7665,10 +7665,10 @@
         <v>20</v>
       </c>
       <c r="O144">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P144">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -7715,10 +7715,10 @@
         <v>20</v>
       </c>
       <c r="O145">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P145">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -7815,7 +7815,7 @@
         <v>20</v>
       </c>
       <c r="O147">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P147">
         <v>-0.0</v>
@@ -7865,7 +7865,7 @@
         <v>20</v>
       </c>
       <c r="O148">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P148">
         <v>-0.0</v>
@@ -7915,10 +7915,10 @@
         <v>20</v>
       </c>
       <c r="O149">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P149">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -7965,7 +7965,7 @@
         <v>20</v>
       </c>
       <c r="O150">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P150">
         <v>-0.0</v>
@@ -8015,10 +8015,10 @@
         <v>20</v>
       </c>
       <c r="O151">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P151">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8065,7 +8065,7 @@
         <v>20</v>
       </c>
       <c r="O152">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P152">
         <v>-0.0</v>
@@ -8115,10 +8115,10 @@
         <v>20</v>
       </c>
       <c r="O153">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P153">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -8215,10 +8215,10 @@
         <v>20</v>
       </c>
       <c r="O155">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P155">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -8618,7 +8618,7 @@
         <v>0.0</v>
       </c>
       <c r="P163">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -8865,10 +8865,10 @@
         <v>20</v>
       </c>
       <c r="O168">
+        <v>0.0</v>
+      </c>
+      <c r="P168">
         <v>1.0</v>
-      </c>
-      <c r="P168">
-        <v>0.0</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -8915,7 +8915,7 @@
         <v>20</v>
       </c>
       <c r="O169">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P169">
         <v>0.0</v>
@@ -9568,7 +9568,7 @@
         <v>0.0</v>
       </c>
       <c r="P182">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -9618,7 +9618,7 @@
         <v>0.0</v>
       </c>
       <c r="P183">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -9768,7 +9768,7 @@
         <v>0.0</v>
       </c>
       <c r="P186">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -9818,7 +9818,7 @@
         <v>0.0</v>
       </c>
       <c r="P187">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10015,10 +10015,10 @@
         <v>20</v>
       </c>
       <c r="O191">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P191">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10065,10 +10065,10 @@
         <v>20</v>
       </c>
       <c r="O192">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P192">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10165,10 +10165,10 @@
         <v>20</v>
       </c>
       <c r="O194">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P194">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -10265,10 +10265,10 @@
         <v>20</v>
       </c>
       <c r="O196">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P196">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -10365,10 +10365,10 @@
         <v>20</v>
       </c>
       <c r="O198">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P198">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -10415,10 +10415,10 @@
         <v>20</v>
       </c>
       <c r="O199">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P199">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -10465,10 +10465,10 @@
         <v>20</v>
       </c>
       <c r="O200">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P200">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -10515,10 +10515,10 @@
         <v>20</v>
       </c>
       <c r="O201">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P201">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -10565,10 +10565,10 @@
         <v>20</v>
       </c>
       <c r="O202">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P202">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -10618,7 +10618,7 @@
         <v>-0.0</v>
       </c>
       <c r="P203">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -10665,10 +10665,10 @@
         <v>20</v>
       </c>
       <c r="O204">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P204">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -10718,7 +10718,7 @@
         <v>-0.0</v>
       </c>
       <c r="P205">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -10765,10 +10765,10 @@
         <v>20</v>
       </c>
       <c r="O206">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P206">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -10815,10 +10815,10 @@
         <v>20</v>
       </c>
       <c r="O207">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P207">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -10868,7 +10868,7 @@
         <v>-0.0</v>
       </c>
       <c r="P208">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -10915,10 +10915,10 @@
         <v>20</v>
       </c>
       <c r="O209">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P209">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -10965,10 +10965,10 @@
         <v>20</v>
       </c>
       <c r="O210">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P210">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11015,10 +11015,10 @@
         <v>20</v>
       </c>
       <c r="O211">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P211">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11065,10 +11065,10 @@
         <v>20</v>
       </c>
       <c r="O212">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P212">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -11115,10 +11115,10 @@
         <v>20</v>
       </c>
       <c r="O213">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P213">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -11165,10 +11165,10 @@
         <v>20</v>
       </c>
       <c r="O214">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P214">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -11265,10 +11265,10 @@
         <v>20</v>
       </c>
       <c r="O216">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P216">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="217" spans="1:16">

--- a/Solmodel2.xlsx
+++ b/Solmodel2.xlsx
@@ -668,7 +668,7 @@
         <v>0.0</v>
       </c>
       <c r="P4">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -815,10 +815,10 @@
         <v>20</v>
       </c>
       <c r="O7">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P7">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1018,7 +1018,7 @@
         <v>0.0</v>
       </c>
       <c r="P11">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1118,7 +1118,7 @@
         <v>0.0</v>
       </c>
       <c r="P13">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1168,7 +1168,7 @@
         <v>0.0</v>
       </c>
       <c r="P14">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1268,7 +1268,7 @@
         <v>0.0</v>
       </c>
       <c r="P16">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1568,7 +1568,7 @@
         <v>1.0</v>
       </c>
       <c r="P22">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2068,7 +2068,7 @@
         <v>-0.0</v>
       </c>
       <c r="P32">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2168,7 +2168,7 @@
         <v>0.0</v>
       </c>
       <c r="P34">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2368,7 +2368,7 @@
         <v>0.0</v>
       </c>
       <c r="P38">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2718,7 +2718,7 @@
         <v>0.0</v>
       </c>
       <c r="P45">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3018,7 +3018,7 @@
         <v>-0.0</v>
       </c>
       <c r="P51">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3365,7 +3365,7 @@
         <v>20</v>
       </c>
       <c r="O58">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P58">
         <v>-0.0</v>
@@ -4018,7 +4018,7 @@
         <v>0.0</v>
       </c>
       <c r="P71">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4118,7 +4118,7 @@
         <v>0.0</v>
       </c>
       <c r="P73">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4165,7 +4165,7 @@
         <v>20</v>
       </c>
       <c r="O74">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P74">
         <v>0.0</v>
@@ -4265,7 +4265,7 @@
         <v>20</v>
       </c>
       <c r="O76">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P76">
         <v>-0.0</v>
@@ -4368,7 +4368,7 @@
         <v>0.0</v>
       </c>
       <c r="P78">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4418,7 +4418,7 @@
         <v>-0.0</v>
       </c>
       <c r="P79">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4468,7 +4468,7 @@
         <v>0.0</v>
       </c>
       <c r="P80">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4665,10 +4665,10 @@
         <v>20</v>
       </c>
       <c r="O84">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P84">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4715,10 +4715,10 @@
         <v>20</v>
       </c>
       <c r="O85">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P85">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -4765,10 +4765,10 @@
         <v>20</v>
       </c>
       <c r="O86">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P86">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -4815,7 +4815,7 @@
         <v>20</v>
       </c>
       <c r="O87">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P87">
         <v>-0.0</v>
@@ -4968,7 +4968,7 @@
         <v>-0.0</v>
       </c>
       <c r="P90">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5118,7 +5118,7 @@
         <v>-0.0</v>
       </c>
       <c r="P93">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5268,7 +5268,7 @@
         <v>-0.0</v>
       </c>
       <c r="P96">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5318,7 +5318,7 @@
         <v>-0.0</v>
       </c>
       <c r="P97">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6165,7 +6165,7 @@
         <v>20</v>
       </c>
       <c r="O114">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P114">
         <v>-0.0</v>
@@ -6218,7 +6218,7 @@
         <v>0.0</v>
       </c>
       <c r="P115">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -6268,7 +6268,7 @@
         <v>0.0</v>
       </c>
       <c r="P116">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -6315,10 +6315,10 @@
         <v>20</v>
       </c>
       <c r="O117">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P117">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -6368,7 +6368,7 @@
         <v>0.0</v>
       </c>
       <c r="P118">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -6515,10 +6515,10 @@
         <v>20</v>
       </c>
       <c r="O121">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P121">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -6668,7 +6668,7 @@
         <v>0.0</v>
       </c>
       <c r="P124">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -6765,10 +6765,10 @@
         <v>20</v>
       </c>
       <c r="O126">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P126">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -6865,10 +6865,10 @@
         <v>20</v>
       </c>
       <c r="O128">
+        <v>0.0</v>
+      </c>
+      <c r="P128">
         <v>1.0</v>
-      </c>
-      <c r="P128">
-        <v>-0.0</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -6968,7 +6968,7 @@
         <v>0.0</v>
       </c>
       <c r="P130">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7015,10 +7015,10 @@
         <v>20</v>
       </c>
       <c r="O131">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P131">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7068,7 +7068,7 @@
         <v>0.0</v>
       </c>
       <c r="P132">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7118,7 +7118,7 @@
         <v>0.0</v>
       </c>
       <c r="P133">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7168,7 +7168,7 @@
         <v>0.0</v>
       </c>
       <c r="P134">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -7268,7 +7268,7 @@
         <v>0.0</v>
       </c>
       <c r="P136">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -7365,10 +7365,10 @@
         <v>20</v>
       </c>
       <c r="O138">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P138">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -7418,7 +7418,7 @@
         <v>0.0</v>
       </c>
       <c r="P139">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -7468,7 +7468,7 @@
         <v>0.0</v>
       </c>
       <c r="P140">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -7515,7 +7515,7 @@
         <v>20</v>
       </c>
       <c r="O141">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P141">
         <v>1.0</v>
@@ -7615,10 +7615,10 @@
         <v>20</v>
       </c>
       <c r="O143">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P143">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -7765,10 +7765,10 @@
         <v>20</v>
       </c>
       <c r="O146">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P146">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -7818,7 +7818,7 @@
         <v>0.0</v>
       </c>
       <c r="P147">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -7868,7 +7868,7 @@
         <v>0.0</v>
       </c>
       <c r="P148">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -7918,7 +7918,7 @@
         <v>0.0</v>
       </c>
       <c r="P149">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -7968,7 +7968,7 @@
         <v>0.0</v>
       </c>
       <c r="P150">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8068,7 +8068,7 @@
         <v>0.0</v>
       </c>
       <c r="P152">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8168,7 +8168,7 @@
         <v>-0.0</v>
       </c>
       <c r="P154">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -8265,10 +8265,10 @@
         <v>20</v>
       </c>
       <c r="O156">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P156">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -8415,10 +8415,10 @@
         <v>20</v>
       </c>
       <c r="O159">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P159">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -8518,7 +8518,7 @@
         <v>0.0</v>
       </c>
       <c r="P161">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -8665,10 +8665,10 @@
         <v>20</v>
       </c>
       <c r="O164">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P164">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -8765,10 +8765,10 @@
         <v>20</v>
       </c>
       <c r="O166">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P166">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -8915,10 +8915,10 @@
         <v>20</v>
       </c>
       <c r="O169">
+        <v>-0.0</v>
+      </c>
+      <c r="P169">
         <v>1.0</v>
-      </c>
-      <c r="P169">
-        <v>0.0</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -8968,7 +8968,7 @@
         <v>0.0</v>
       </c>
       <c r="P170">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9018,7 +9018,7 @@
         <v>0.0</v>
       </c>
       <c r="P171">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9068,7 +9068,7 @@
         <v>0.0</v>
       </c>
       <c r="P172">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9118,7 +9118,7 @@
         <v>0.0</v>
       </c>
       <c r="P173">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9165,10 +9165,10 @@
         <v>20</v>
       </c>
       <c r="O174">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P174">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -9215,10 +9215,10 @@
         <v>20</v>
       </c>
       <c r="O175">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P175">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -9265,10 +9265,10 @@
         <v>20</v>
       </c>
       <c r="O176">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P176">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -9315,10 +9315,10 @@
         <v>20</v>
       </c>
       <c r="O177">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P177">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -9465,10 +9465,10 @@
         <v>20</v>
       </c>
       <c r="O180">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P180">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -9565,10 +9565,10 @@
         <v>20</v>
       </c>
       <c r="O182">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P182">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -9615,7 +9615,7 @@
         <v>20</v>
       </c>
       <c r="O183">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P183">
         <v>1.0</v>
@@ -9668,7 +9668,7 @@
         <v>0.0</v>
       </c>
       <c r="P184">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -9718,7 +9718,7 @@
         <v>0.0</v>
       </c>
       <c r="P185">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -9815,7 +9815,7 @@
         <v>20</v>
       </c>
       <c r="O187">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P187">
         <v>1.0</v>
@@ -9868,7 +9868,7 @@
         <v>0.0</v>
       </c>
       <c r="P188">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -9915,10 +9915,10 @@
         <v>20</v>
       </c>
       <c r="O189">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P189">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10715,10 +10715,10 @@
         <v>20</v>
       </c>
       <c r="O205">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P205">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -10868,7 +10868,7 @@
         <v>-0.0</v>
       </c>
       <c r="P208">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11165,10 +11165,10 @@
         <v>20</v>
       </c>
       <c r="O214">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P214">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="215" spans="1:16">

--- a/Solmodel2.xlsx
+++ b/Solmodel2.xlsx
@@ -565,7 +565,7 @@
         <v>20</v>
       </c>
       <c r="O2">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P2">
         <v>0.0</v>
@@ -1018,7 +1018,7 @@
         <v>0.0</v>
       </c>
       <c r="P11">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1118,7 +1118,7 @@
         <v>0.0</v>
       </c>
       <c r="P13">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1268,7 +1268,7 @@
         <v>0.0</v>
       </c>
       <c r="P16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1418,7 +1418,7 @@
         <v>0.0</v>
       </c>
       <c r="P19">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1515,10 +1515,10 @@
         <v>20</v>
       </c>
       <c r="O21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1568,7 +1568,7 @@
         <v>1.0</v>
       </c>
       <c r="P22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2065,10 +2065,10 @@
         <v>20</v>
       </c>
       <c r="O32">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P32">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2268,7 +2268,7 @@
         <v>0.0</v>
       </c>
       <c r="P36">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2318,7 +2318,7 @@
         <v>0.0</v>
       </c>
       <c r="P37">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2368,7 +2368,7 @@
         <v>0.0</v>
       </c>
       <c r="P38">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2768,7 +2768,7 @@
         <v>0.0</v>
       </c>
       <c r="P46">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2918,7 +2918,7 @@
         <v>-0.0</v>
       </c>
       <c r="P49">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4018,7 +4018,7 @@
         <v>0.0</v>
       </c>
       <c r="P71">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4118,7 +4118,7 @@
         <v>0.0</v>
       </c>
       <c r="P73">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4165,10 +4165,10 @@
         <v>20</v>
       </c>
       <c r="O74">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P74">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4265,7 +4265,7 @@
         <v>20</v>
       </c>
       <c r="O76">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P76">
         <v>-0.0</v>
@@ -4468,7 +4468,7 @@
         <v>0.0</v>
       </c>
       <c r="P80">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4715,10 +4715,10 @@
         <v>20</v>
       </c>
       <c r="O85">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P85">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -4765,10 +4765,10 @@
         <v>20</v>
       </c>
       <c r="O86">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P86">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -4815,10 +4815,10 @@
         <v>20</v>
       </c>
       <c r="O87">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P87">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5068,7 +5068,7 @@
         <v>0.0</v>
       </c>
       <c r="P92">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5268,7 +5268,7 @@
         <v>-0.0</v>
       </c>
       <c r="P96">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5368,7 +5368,7 @@
         <v>-0.0</v>
       </c>
       <c r="P98">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6165,7 +6165,7 @@
         <v>20</v>
       </c>
       <c r="O114">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P114">
         <v>-0.0</v>
@@ -6218,7 +6218,7 @@
         <v>0.0</v>
       </c>
       <c r="P115">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -6268,7 +6268,7 @@
         <v>0.0</v>
       </c>
       <c r="P116">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -6315,10 +6315,10 @@
         <v>20</v>
       </c>
       <c r="O117">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P117">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -6368,7 +6368,7 @@
         <v>0.0</v>
       </c>
       <c r="P118">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -6418,7 +6418,7 @@
         <v>0.0</v>
       </c>
       <c r="P119">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -6515,7 +6515,7 @@
         <v>20</v>
       </c>
       <c r="O121">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P121">
         <v>1.0</v>
@@ -6618,7 +6618,7 @@
         <v>0.0</v>
       </c>
       <c r="P123">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -6718,7 +6718,7 @@
         <v>0.0</v>
       </c>
       <c r="P125">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -6765,10 +6765,10 @@
         <v>20</v>
       </c>
       <c r="O126">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P126">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -6815,10 +6815,10 @@
         <v>20</v>
       </c>
       <c r="O127">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P127">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -6865,10 +6865,10 @@
         <v>20</v>
       </c>
       <c r="O128">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P128">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -6968,7 +6968,7 @@
         <v>0.0</v>
       </c>
       <c r="P130">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7015,10 +7015,10 @@
         <v>20</v>
       </c>
       <c r="O131">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P131">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7068,7 +7068,7 @@
         <v>0.0</v>
       </c>
       <c r="P132">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7118,7 +7118,7 @@
         <v>0.0</v>
       </c>
       <c r="P133">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7168,7 +7168,7 @@
         <v>0.0</v>
       </c>
       <c r="P134">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -7268,7 +7268,7 @@
         <v>0.0</v>
       </c>
       <c r="P136">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -7365,10 +7365,10 @@
         <v>20</v>
       </c>
       <c r="O138">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P138">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -7418,7 +7418,7 @@
         <v>0.0</v>
       </c>
       <c r="P139">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -7515,10 +7515,10 @@
         <v>20</v>
       </c>
       <c r="O141">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P141">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -7615,10 +7615,10 @@
         <v>20</v>
       </c>
       <c r="O143">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P143">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -7765,10 +7765,10 @@
         <v>20</v>
       </c>
       <c r="O146">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="P146">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -7818,7 +7818,7 @@
         <v>0.0</v>
       </c>
       <c r="P147">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -7868,7 +7868,7 @@
         <v>0.0</v>
       </c>
       <c r="P148">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -7918,7 +7918,7 @@
         <v>0.0</v>
       </c>
       <c r="P149">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -7968,7 +7968,7 @@
         <v>0.0</v>
       </c>
       <c r="P150">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8068,7 +8068,7 @@
         <v>0.0</v>
       </c>
       <c r="P152">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8168,7 +8168,7 @@
         <v>-0.0</v>
       </c>
       <c r="P154">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -8768,7 +8768,7 @@
         <v>-0.0</v>
       </c>
       <c r="P166">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9068,7 +9068,7 @@
         <v>0.0</v>
       </c>
       <c r="P172">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9118,7 +9118,7 @@
         <v>0.0</v>
       </c>
       <c r="P173">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9265,7 +9265,7 @@
         <v>20</v>
       </c>
       <c r="O176">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P176">
         <v>-0.0</v>
@@ -9318,7 +9318,7 @@
         <v>-0.0</v>
       </c>
       <c r="P177">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -9468,7 +9468,7 @@
         <v>-0.0</v>
       </c>
       <c r="P180">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -9618,7 +9618,7 @@
         <v>-0.0</v>
       </c>
       <c r="P183">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -9718,7 +9718,7 @@
         <v>0.0</v>
       </c>
       <c r="P185">
-        <v>1.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10715,10 +10715,10 @@
         <v>20</v>
       </c>
       <c r="O205">
+        <v>-0.0</v>
+      </c>
+      <c r="P205">
         <v>1.0</v>
-      </c>
-      <c r="P205">
-        <v>-0.0</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -10868,7 +10868,7 @@
         <v>-0.0</v>
       </c>
       <c r="P208">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11165,10 +11165,10 @@
         <v>20</v>
       </c>
       <c r="O214">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P214">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="215" spans="1:16">
